--- a/DB정리자료/Bank(은행)/은행 DB 설명서.xlsx
+++ b/DB정리자료/Bank(은행)/은행 DB 설명서.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Eclipse\Java\teamproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tndyd\Documents\GitHub\project_3\DB정리자료\Bank(은행)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AA7498-86CD-46E6-A1D3-E6AF9245A15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE6A6AB-42EA-4921-BC69-BA925D3F740B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73D43B7B-BA75-4445-9054-FAA95DBB6B72}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="91">
   <si>
     <t>테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,18 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2(20)</t>
-  </si>
-  <si>
-    <t>VARCHAR2(30)</t>
-  </si>
-  <si>
-    <t>VARCHAR2(4)</t>
-  </si>
-  <si>
-    <t>VARCHAR2(40)</t>
-  </si>
-  <si>
     <t>사용자 아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>계좌번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,14 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CVS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카드 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,10 +294,6 @@
     <t>비고</t>
   </si>
   <si>
-    <t>결제가 성공했는지, 실패했는지를 나타낸다. 실패했을 경우 이유가 적힌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결제 후 남은 금액.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,11 +334,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결제 시 요구하는 결제용 비밀번호.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>계좌용 4자리 숫자 비밀번호.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYGATES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허용된 PG 앱이 저장된 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG코드</t>
+  </si>
+  <si>
+    <t>PG 이름</t>
+  </si>
+  <si>
+    <t>등록된 PG앱의 고유 코드.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 PG앱의 이름.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(38,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 결제 시 요구하는 결제용 비밀번호.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,6 +559,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -552,24 +584,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -886,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFA07A6-0D31-461F-9BA1-74B6483B0E61}">
-  <dimension ref="B1:J47"/>
+  <dimension ref="B1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -918,21 +932,21 @@
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -941,10 +955,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>3</v>
@@ -956,22 +970,22 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -980,32 +994,32 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
+        <v>16</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1013,13 +1027,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1028,13 +1042,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1045,16 +1059,16 @@
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
       <c r="G12" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -1063,30 +1077,30 @@
         <v>5</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1103,27 +1117,27 @@
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1143,33 +1157,33 @@
         <v>0</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
       <c r="G20" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I20" s="16"/>
     </row>
     <row r="21" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
@@ -1178,30 +1192,30 @@
         <v>5</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1215,25 +1229,25 @@
     </row>
     <row r="23" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1241,41 +1255,41 @@
         <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1295,33 +1309,33 @@
         <v>0</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
       <c r="G30" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I30" s="16"/>
     </row>
     <row r="31" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
@@ -1330,133 +1344,133 @@
         <v>5</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="19"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
     </row>
     <row r="33" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E33" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F39"/>
       <c r="G39"/>
@@ -1465,16 +1479,16 @@
     </row>
     <row r="40" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F40"/>
       <c r="G40"/>
@@ -1483,17 +1497,15 @@
     </row>
     <row r="41" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E41" s="3"/>
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41"/>
@@ -1509,7 +1521,7 @@
       <c r="H42"/>
       <c r="I42"/>
     </row>
-    <row r="43" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
@@ -1519,56 +1531,105 @@
       <c r="H43"/>
       <c r="I43"/>
     </row>
-    <row r="44" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-    </row>
-    <row r="45" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-    </row>
-    <row r="46" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-    </row>
-    <row r="47" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
+    <row r="44" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="20"/>
+      <c r="G45" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I45" s="16"/>
+    </row>
+    <row r="46" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="14"/>
+    </row>
+    <row r="48" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="G47:I47"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B30:E30"/>
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H45:I45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB정리자료/Bank(은행)/은행 DB 설명서.xlsx
+++ b/DB정리자료/Bank(은행)/은행 DB 설명서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tndyd\Documents\GitHub\project_3\DB정리자료\Bank(은행)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE6A6AB-42EA-4921-BC69-BA925D3F740B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502DDE2F-3FDE-4A4B-BCD7-6F3B9EC8FC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73D43B7B-BA75-4445-9054-FAA95DBB6B72}"/>
   </bookViews>
@@ -244,9 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PAYMENT_NUMBER</t>
-  </si>
-  <si>
     <t>VARCHAR2(255)</t>
   </si>
   <si>
@@ -381,6 +378,10 @@
   </si>
   <si>
     <t>카드 결제 시 요구하는 결제용 비밀번호.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARD_OR_ACCOUNT_NUMBER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -902,14 +903,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFA07A6-0D31-461F-9BA1-74B6483B0E61}">
   <dimension ref="B1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="28.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="84.25" style="1" bestFit="1" customWidth="1"/>
@@ -970,13 +971,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>24</v>
@@ -994,7 +995,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>11</v>
@@ -1013,13 +1014,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1027,13 +1028,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1094,13 +1095,13 @@
         <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1117,7 +1118,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
@@ -1209,13 +1210,13 @@
         <v>45</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1232,13 +1233,13 @@
         <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>37</v>
@@ -1255,27 +1256,27 @@
         <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1361,13 +1362,13 @@
         <v>19</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>25</v>
@@ -1380,13 +1381,13 @@
         <v>3</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1405,16 +1406,16 @@
     </row>
     <row r="35" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1436,32 +1437,32 @@
         <v>40</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E37" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>20</v>
@@ -1479,16 +1480,16 @@
     </row>
     <row r="40" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="F40"/>
       <c r="G40"/>
@@ -1497,13 +1498,13 @@
     </row>
     <row r="41" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41"/>
@@ -1536,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1556,7 +1557,7 @@
         <v>23</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I45" s="16"/>
     </row>
@@ -1585,16 +1586,16 @@
     </row>
     <row r="47" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="D47" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G47" s="12" t="s">
         <v>25</v>
@@ -1604,16 +1605,16 @@
     </row>
     <row r="48" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
